--- a/instructions/HyMet_Template.xlsx
+++ b/instructions/HyMet_Template.xlsx
@@ -20,15 +20,16 @@
     <sheet name="Sources" sheetId="20" r:id="rId6"/>
     <sheet name="QualityControlLevels" sheetId="14" r:id="rId7"/>
     <sheet name="DataValues" sheetId="4" r:id="rId8"/>
-    <sheet name="OffsetTypes" sheetId="12" r:id="rId9"/>
-    <sheet name="Qualifiers" sheetId="13" r:id="rId10"/>
+    <sheet name="SeriesCatalog" sheetId="32" r:id="rId9"/>
+    <sheet name="OffsetTypes" sheetId="12" r:id="rId10"/>
+    <sheet name="Qualifiers" sheetId="13" r:id="rId11"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="206">
   <si>
     <t>Data Type</t>
   </si>
@@ -784,6 +785,75 @@
         <scheme val="minor"/>
       </rPr>
       <t>mandatory when data values exist that have data qualifiers. Otherwise, it can be left out of the data package.</t>
+    </r>
+  </si>
+  <si>
+    <t>SeriesCatalog</t>
+  </si>
+  <si>
+    <t>SeriesID</t>
+  </si>
+  <si>
+    <t>BeginDateTime</t>
+  </si>
+  <si>
+    <t>BeginDateTimeUTC</t>
+  </si>
+  <si>
+    <t>EndDateTimeUTC</t>
+  </si>
+  <si>
+    <t>ValueCount</t>
+  </si>
+  <si>
+    <t>EndDateTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unique integer identifier for 
+each data series. </t>
+  </si>
+  <si>
+    <t>The number of data values in the series identified by the combination of the SiteCode, VariableCode, MethodCode, SourceCode and QualityControlLevelCode fields.</t>
+  </si>
+  <si>
+    <t>Date of the first data value in the series. We recommend using ISO 8601 representations, e.g., 2021-07-28T12:28</t>
+  </si>
+  <si>
+    <t>Date of the first data value in the series in UTC. We recommend using ISO 8601 representations, e.g., 2021-07-28T19:28</t>
+  </si>
+  <si>
+    <t>Date of the last data value in the series. We recommend using ISO 8601 representations, e.g., 2022-07-28T12:28</t>
+  </si>
+  <si>
+    <t>Date of the last data value in the series in UTC. We recommend using ISO 8601 representations, e.g., 2022-07-28T19:28</t>
+  </si>
+  <si>
+    <t>Mandatory, unique</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The SeriesCatalog table summarizes the time series available in the DataValues table. This table enables applications to assess what is in the dataset without having to read the entire DataValues table.  This table is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mandatory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
     </r>
   </si>
 </sst>
@@ -1417,7 +1487,7 @@
     <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1456,6 +1526,8 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="42" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1486,8 +1558,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1507,20 +1591,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1870,7 +1958,7 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:C19"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1881,34 +1969,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
     </row>
     <row r="5" spans="1:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="C5" s="29"/>
+      <c r="C5" s="31"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
@@ -1950,18 +2038,18 @@
       <c r="K13" s="6"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
@@ -2002,10 +2090,10 @@
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="40"/>
+      <c r="C19" s="32"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
@@ -2016,32 +2104,32 @@
       <c r="K19" s="6"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
       <c r="K21" s="6"/>
     </row>
     <row r="22" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -2057,28 +2145,28 @@
       <c r="K22" s="17"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="22"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="24"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="23"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="25"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2098,6 +2186,98 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" display="Mandatory if table is used; Foreign Key; Controlled Vocabulary"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2171,7 +2351,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:P19"/>
+  <dimension ref="A2:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2182,372 +2362,416 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="33"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="39"/>
     </row>
     <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="36"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="42"/>
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
     </row>
     <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="30"/>
-    </row>
-    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="39" t="s">
+      <c r="A15" s="36"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+    </row>
+    <row r="16" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="B16" s="43" t="s">
+        <v>205</v>
+      </c>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="45"/>
+    </row>
+    <row r="17" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="36"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="47"/>
+      <c r="P17" s="48"/>
+    </row>
+    <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B18" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="39"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
-    </row>
-    <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="39" t="s">
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="33"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+    </row>
+    <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B20" s="35" t="s">
         <v>190</v>
       </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="39"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="30"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="35"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="33"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="20">
+    <mergeCell ref="B12:P13"/>
+    <mergeCell ref="B14:P15"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:P17"/>
     <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B16:P17"/>
     <mergeCell ref="B18:P19"/>
+    <mergeCell ref="B20:P21"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
@@ -2559,8 +2783,6 @@
     <mergeCell ref="B8:P9"/>
     <mergeCell ref="B10:P11"/>
     <mergeCell ref="B2:P3"/>
-    <mergeCell ref="B12:P13"/>
-    <mergeCell ref="B14:P15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2594,16 +2816,16 @@
       <c r="B1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="20" t="s">
         <v>40</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -2612,13 +2834,13 @@
       <c r="H1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="J1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="K1" s="20" t="s">
         <v>42</v>
       </c>
       <c r="L1" s="2" t="s">
@@ -2919,7 +3141,7 @@
       <c r="E1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="21" t="s">
         <v>84</v>
       </c>
       <c r="G1" s="5" t="s">
@@ -2934,7 +3156,7 @@
       <c r="J1" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="K1" s="42" t="s">
+      <c r="K1" s="21" t="s">
         <v>85</v>
       </c>
       <c r="L1" s="5" t="s">
@@ -2949,7 +3171,7 @@
       <c r="O1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="P1" s="42" t="s">
+      <c r="P1" s="21" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3460,7 +3682,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3514,7 +3738,7 @@
       <c r="K1" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="L1" s="42" t="s">
+      <c r="L1" s="21" t="s">
         <v>23</v>
       </c>
       <c r="M1" s="5" t="s">
@@ -3726,75 +3950,346 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:Y5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.85546875" customWidth="1"/>
+    <col min="11" max="11" width="31.5703125" customWidth="1"/>
+    <col min="12" max="12" width="30.140625" customWidth="1"/>
+    <col min="13" max="13" width="31.85546875" customWidth="1"/>
+    <col min="14" max="14" width="25.42578125" customWidth="1"/>
+    <col min="15" max="15" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26" customWidth="1"/>
+    <col min="17" max="17" width="27.28515625" customWidth="1"/>
+    <col min="18" max="18" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="27" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>129</v>
+        <v>35</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="O2" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="P2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="V2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="W2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="X2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="30" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="N3" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="O3" s="10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="P3" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="S3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="T3" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="U3" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="V3" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="W3" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="X3" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="194.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="O4" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="P4" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q4" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="R4" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="S4" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="T4" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="U4" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="V4" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="W4" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="X4" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y4" s="11" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -3807,11 +4302,81 @@
       <c r="D5" s="10" t="s">
         <v>80</v>
       </c>
+      <c r="E5" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q5" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="R5" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="S5" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="T5" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="U5" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="V5" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="W5" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="X5" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y5" s="10" t="s">
+        <v>128</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" display="Mandatory if table is used; Foreign Key; Controlled Vocabulary"/>
+    <hyperlink ref="F3" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId2"/>
+    <hyperlink ref="H3" r:id="rId3"/>
+    <hyperlink ref="I3" r:id="rId4"/>
+    <hyperlink ref="L3" r:id="rId5"/>
+    <hyperlink ref="K3" r:id="rId6"/>
+    <hyperlink ref="M3" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>